--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-RESULT-01).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-SIMUL-RESULT-01).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -400,6 +396,10 @@
   </si>
   <si>
     <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,9 +647,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +697,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1454,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1463,14 +1463,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="31" t="s">
@@ -1480,8 +1480,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="20">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1489,14 +1489,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="32"/>
@@ -1504,8 +1504,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,13 +1514,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="33"/>
@@ -1528,8 +1528,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="20">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="323.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -1611,340 +1611,372 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="20" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="G13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="20" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="20" t="s">
+      <c r="G18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1983,7 +2015,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2002,14 +2034,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2018,14 +2050,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="31" t="s">
@@ -2035,8 +2067,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="20">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2044,14 +2076,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="32"/>
@@ -2059,8 +2091,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="20">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2069,13 +2101,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="33"/>
@@ -2083,8 +2115,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="20">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2139,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -2120,179 +2152,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="37"/>
       <c r="C11" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="37"/>
       <c r="C12" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="37"/>
       <c r="C15" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="37"/>
       <c r="C18" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -2351,8 +2427,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>43</v>
+      <c r="A1" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2367,7 +2443,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2376,14 +2452,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -2396,14 +2472,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
@@ -2413,7 +2489,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2595,7 +2671,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -2777,7 +2853,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
@@ -2959,7 +3035,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -3141,7 +3217,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
@@ -3323,7 +3399,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
@@ -3505,7 +3581,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
@@ -3687,7 +3763,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="24"/>
@@ -4588,292 +4664,292 @@
       <c r="J185" s="44"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="19"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="18"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A187" s="10"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="12"/>
+      <c r="A187" s="9"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A188" s="10"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="12"/>
+      <c r="A188" s="9"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A189" s="10"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="12"/>
+      <c r="A189" s="9"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="12"/>
+      <c r="A190" s="9"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
-      <c r="J191" s="12"/>
+      <c r="A191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="J192" s="12"/>
+      <c r="A192" s="9"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="12"/>
+      <c r="A193" s="9"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="10"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="12"/>
+      <c r="A194" s="9"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="11"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="J195" s="12"/>
+      <c r="A195" s="9"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="12"/>
+      <c r="A196" s="9"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="11"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="12"/>
+      <c r="A197" s="9"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="12"/>
+      <c r="A198" s="9"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="11"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="12"/>
+      <c r="A199" s="9"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="11"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="11"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="12"/>
+      <c r="A200" s="9"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="11"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="12"/>
+      <c r="A201" s="9"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="11"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A202" s="10"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="11"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="12"/>
+      <c r="A202" s="9"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="11"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="10"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="12"/>
+      <c r="A203" s="9"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="11"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="10"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="12"/>
+      <c r="A204" s="9"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="11"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A205" s="10"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="12"/>
+      <c r="A205" s="9"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="11"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="10"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="12"/>
+      <c r="A206" s="9"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="11"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A207" s="10"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="12"/>
+      <c r="A207" s="9"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="11"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A208" s="10"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="12"/>
+      <c r="A208" s="9"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="11"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="14"/>
-      <c r="I209" s="14"/>
-      <c r="J209" s="15"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="29">
